--- a/documents/literature.xlsx
+++ b/documents/literature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saket\GitHub\BECCS-Case-Study\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7BACCDED-1D03-4414-BBAB-F70DB6B98583}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{240171BC-DE69-43A1-B86F-F0ED530D8611}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25365" windowHeight="11295" xr2:uid="{8752DB4E-FBAF-4383-A5D2-638255B8AF39}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Citation</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>"The outcomes of the model are then applied to show (i) that it is typically not optimal to hedge a baseload consumption profile with a baseload forward contract and (ii) that, under reasonable assumptions, risk taking by the purchaser is rewarded by lower expected costs"</t>
+  </si>
+  <si>
+    <t>There is thus an inherent tendency for renewable-intensive systems to be more diverse.</t>
   </si>
 </sst>
 </file>
@@ -984,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCA31AF-B148-424B-8EDF-427576F07870}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1169,9 @@
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
